--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/112.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/4_fold/112.xlsx
@@ -479,13 +479,13 @@
         <v>-14.55696852279756</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.95898981908174</v>
+        <v>-13.826534991232</v>
       </c>
       <c r="F2" t="n">
-        <v>4.248187712244182</v>
+        <v>4.132844524208576</v>
       </c>
       <c r="G2" t="n">
-        <v>-9.52028020204567</v>
+        <v>-9.623447548438472</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-14.5034721577223</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.53887409654747</v>
+        <v>-14.4086056832723</v>
       </c>
       <c r="F3" t="n">
-        <v>4.471961352414964</v>
+        <v>4.346327614345761</v>
       </c>
       <c r="G3" t="n">
-        <v>-9.191768139141081</v>
+        <v>-9.292631240233737</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.41232059387921</v>
       </c>
       <c r="E4" t="n">
-        <v>-15.16325911137223</v>
+        <v>-15.03574008169382</v>
       </c>
       <c r="F4" t="n">
-        <v>4.546142340316185</v>
+        <v>4.413045989627197</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.175206376046296</v>
+        <v>-9.256640499721833</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.27662087156618</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.778296221968</v>
+        <v>-15.6495596081253</v>
       </c>
       <c r="F5" t="n">
-        <v>4.528546285296905</v>
+        <v>4.39304095088504</v>
       </c>
       <c r="G5" t="n">
-        <v>-8.831441780331096</v>
+        <v>-8.907141475361955</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-14.11506254654811</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.42768753522045</v>
+        <v>-16.29701326055718</v>
       </c>
       <c r="F6" t="n">
-        <v>4.516030043780215</v>
+        <v>4.381650647412738</v>
       </c>
       <c r="G6" t="n">
-        <v>-8.405745553432372</v>
+        <v>-8.505456531874957</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.94970524709684</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.96439339791417</v>
+        <v>-16.85350159284475</v>
       </c>
       <c r="F7" t="n">
-        <v>4.769208996133513</v>
+        <v>4.617992898311577</v>
       </c>
       <c r="G7" t="n">
-        <v>-8.398047279361437</v>
+        <v>-8.481379786949024</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-13.77027049767366</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.96904434877686</v>
+        <v>-17.84149913449277</v>
       </c>
       <c r="F8" t="n">
-        <v>4.923095923735161</v>
+        <v>4.779709023012577</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.55119785465007</v>
+        <v>-7.647125157571397</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-13.59934243297637</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.59257836391691</v>
+        <v>-18.47337294654299</v>
       </c>
       <c r="F9" t="n">
-        <v>4.882064646629192</v>
+        <v>4.735875993098478</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.148779742203935</v>
+        <v>-7.240622246638644</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-13.41956421618224</v>
       </c>
       <c r="E10" t="n">
-        <v>-19.33577602703033</v>
+        <v>-19.20874141255706</v>
       </c>
       <c r="F10" t="n">
-        <v>5.025346808929042</v>
+        <v>4.879708032117681</v>
       </c>
       <c r="G10" t="n">
-        <v>-6.289047491496309</v>
+        <v>-6.379855704006522</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.23123641108776</v>
       </c>
       <c r="E11" t="n">
-        <v>-20.19395029369979</v>
+        <v>-20.06585520269634</v>
       </c>
       <c r="F11" t="n">
-        <v>5.211231324675869</v>
+        <v>5.065513994047458</v>
       </c>
       <c r="G11" t="n">
-        <v>-6.039311814790385</v>
+        <v>-6.142819561057071</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.03708001680856</v>
       </c>
       <c r="E12" t="n">
-        <v>-21.15660113704622</v>
+        <v>-21.02571738553749</v>
       </c>
       <c r="F12" t="n">
-        <v>5.559957903168084</v>
+        <v>5.405128329761832</v>
       </c>
       <c r="G12" t="n">
-        <v>-5.439330852462605</v>
+        <v>-5.523514359734903</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.81989561615051</v>
       </c>
       <c r="E13" t="n">
-        <v>-21.82492392020782</v>
+        <v>-21.69976150504091</v>
       </c>
       <c r="F13" t="n">
-        <v>5.690671454739877</v>
+        <v>5.538198495845135</v>
       </c>
       <c r="G13" t="n">
-        <v>-5.036847278502262</v>
+        <v>-5.10449520728546</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.60141479676513</v>
       </c>
       <c r="E14" t="n">
-        <v>-22.63061114478479</v>
+        <v>-22.50297428438081</v>
       </c>
       <c r="F14" t="n">
-        <v>5.980927808740944</v>
+        <v>5.834922447450015</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.08999884468579</v>
+        <v>-4.159807003437874</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-12.36722057235747</v>
       </c>
       <c r="E15" t="n">
-        <v>-23.63731758719364</v>
+        <v>-23.50609343581102</v>
       </c>
       <c r="F15" t="n">
-        <v>6.202554311245683</v>
+        <v>6.047619999416697</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.660217819300449</v>
+        <v>-3.725168733698252</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-12.12548705879071</v>
       </c>
       <c r="E16" t="n">
-        <v>-24.28731114637681</v>
+        <v>-24.16423040736175</v>
       </c>
       <c r="F16" t="n">
-        <v>6.491318142722793</v>
+        <v>6.333608262691361</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.465168691564414</v>
+        <v>-3.508163814096642</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-11.8773645880125</v>
       </c>
       <c r="E17" t="n">
-        <v>-25.15881337733915</v>
+        <v>-25.0364919918889</v>
       </c>
       <c r="F17" t="n">
-        <v>6.841406320710548</v>
+        <v>6.682570502634728</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.360626653373231</v>
+        <v>-3.390189073189849</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-11.61022197690292</v>
       </c>
       <c r="E18" t="n">
-        <v>-25.88424478549635</v>
+        <v>-25.77095708900689</v>
       </c>
       <c r="F18" t="n">
-        <v>6.722056888005373</v>
+        <v>6.572359497313077</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.986134422888499</v>
+        <v>-3.016416919361411</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-11.34193855800188</v>
       </c>
       <c r="E19" t="n">
-        <v>-26.51343467546402</v>
+        <v>-26.41046371361384</v>
       </c>
       <c r="F19" t="n">
-        <v>6.828471125502923</v>
+        <v>6.690033115254511</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.585182648360638</v>
+        <v>-2.611157777198623</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-11.05964129655175</v>
       </c>
       <c r="E20" t="n">
-        <v>-27.01830005764666</v>
+        <v>-26.91353545030717</v>
       </c>
       <c r="F20" t="n">
-        <v>7.05646048718874</v>
+        <v>6.903490020786013</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.344716322066656</v>
+        <v>-2.374540587940107</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-10.77560139739533</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.36878100471967</v>
+        <v>-27.26969845681349</v>
       </c>
       <c r="F21" t="n">
-        <v>7.015664871533922</v>
+        <v>6.86887397207249</v>
       </c>
       <c r="G21" t="n">
-        <v>-2.125669003221736</v>
+        <v>-2.155179053826987</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-10.48933810960612</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.88803482772537</v>
+        <v>-27.79057572537156</v>
       </c>
       <c r="F22" t="n">
-        <v>7.060466731858309</v>
+        <v>6.920640937508675</v>
       </c>
       <c r="G22" t="n">
-        <v>-2.172120493704181</v>
+        <v>-2.183851197050367</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-10.19107776461633</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.10111205647446</v>
+        <v>-28.00839236774935</v>
       </c>
       <c r="F23" t="n">
-        <v>7.078062786877589</v>
+        <v>6.934283117069753</v>
       </c>
       <c r="G23" t="n">
-        <v>-2.25320112520299</v>
+        <v>-2.262732321671767</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-9.890257935340285</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.50790299806973</v>
+        <v>-28.41785413912434</v>
       </c>
       <c r="F24" t="n">
-        <v>7.294295260611537</v>
+        <v>7.147661468784205</v>
       </c>
       <c r="G24" t="n">
-        <v>-2.576620282302149</v>
+        <v>-2.577510558895387</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-9.56878683510935</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.39786219268502</v>
+        <v>-28.32221486686553</v>
       </c>
       <c r="F25" t="n">
-        <v>7.268712900858803</v>
+        <v>7.114040435086652</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.479318287582441</v>
+        <v>-2.472628120830319</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.234907480383747</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.88788090344514</v>
+        <v>-28.79175721598119</v>
       </c>
       <c r="F26" t="n">
-        <v>7.27436877568643</v>
+        <v>7.130798582724061</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.573046083626358</v>
+        <v>-2.563946933151358</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.884543362615192</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.74256943420482</v>
+        <v>-28.65646135841479</v>
       </c>
       <c r="F27" t="n">
-        <v>7.472743348344263</v>
+        <v>7.314247930142327</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.649688424461822</v>
+        <v>-2.639384782125384</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.51365879950213</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.98369037564089</v>
+        <v>-28.90122196004086</v>
       </c>
       <c r="F28" t="n">
-        <v>7.275023390828515</v>
+        <v>7.124042954457731</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.805931966574981</v>
+        <v>-2.792577817676421</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.132369407851284</v>
       </c>
       <c r="E29" t="n">
-        <v>-29.35061525508311</v>
+        <v>-29.25024966149844</v>
       </c>
       <c r="F29" t="n">
-        <v>7.331503585287722</v>
+        <v>7.189216438003843</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.923841245967566</v>
+        <v>-2.911115527605408</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-7.729503456157094</v>
       </c>
       <c r="E30" t="n">
-        <v>-29.04509327596859</v>
+        <v>-28.94180809885021</v>
       </c>
       <c r="F30" t="n">
-        <v>7.174369766581326</v>
+        <v>7.029621266363202</v>
       </c>
       <c r="G30" t="n">
-        <v>-2.89717222507897</v>
+        <v>-2.889892904698971</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-7.317001687872208</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.95556810913687</v>
+        <v>-28.85496685410104</v>
       </c>
       <c r="F31" t="n">
-        <v>7.127132737928378</v>
+        <v>6.978299439223636</v>
       </c>
       <c r="G31" t="n">
-        <v>-2.805643935912463</v>
+        <v>-2.794253632440161</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-6.893841166209456</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.8406438747922</v>
+        <v>-28.73023648492792</v>
       </c>
       <c r="F32" t="n">
-        <v>7.208043169490245</v>
+        <v>7.064184945865359</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.322266206046974</v>
+        <v>-3.309056072479672</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-6.464591402641639</v>
       </c>
       <c r="E33" t="n">
-        <v>-28.73258000713659</v>
+        <v>-28.62878423020738</v>
       </c>
       <c r="F33" t="n">
-        <v>7.450983941021314</v>
+        <v>7.29963692017096</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.628351154183688</v>
+        <v>-3.61038851468484</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-6.044845951222517</v>
       </c>
       <c r="E34" t="n">
-        <v>-28.33186389405988</v>
+        <v>-28.23132810053826</v>
       </c>
       <c r="F34" t="n">
-        <v>7.396074822903115</v>
+        <v>7.261721611141322</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.824984450563572</v>
+        <v>-3.817155253464219</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.635133402719557</v>
       </c>
       <c r="E35" t="n">
-        <v>-28.24561180293859</v>
+        <v>-28.12580413963395</v>
       </c>
       <c r="F35" t="n">
-        <v>7.34415074983283</v>
+        <v>7.203277571255857</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.086516292129891</v>
+        <v>-4.078150310614029</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.256110211578302</v>
       </c>
       <c r="E36" t="n">
-        <v>-27.94070516205763</v>
+        <v>-27.81814811515623</v>
       </c>
       <c r="F36" t="n">
-        <v>7.519194838826706</v>
+        <v>7.370282986304915</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.295613460815098</v>
+        <v>-4.283607819109235</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-4.911562323353618</v>
       </c>
       <c r="E37" t="n">
-        <v>-27.50135366329499</v>
+        <v>-27.3834443839024</v>
       </c>
       <c r="F37" t="n">
-        <v>7.211970860342763</v>
+        <v>7.080209924543632</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.685921193132636</v>
+        <v>-4.675656827704723</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-4.60806015736334</v>
       </c>
       <c r="E38" t="n">
-        <v>-27.30990491884043</v>
+        <v>-27.18400933471439</v>
       </c>
       <c r="F38" t="n">
-        <v>7.593585303573394</v>
+        <v>7.453392924744191</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.697769727204398</v>
+        <v>-4.6889847919976</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.353063774613533</v>
       </c>
       <c r="E39" t="n">
-        <v>-26.97565842729116</v>
+        <v>-26.85378218013753</v>
       </c>
       <c r="F39" t="n">
-        <v>7.48251020626419</v>
+        <v>7.345643272356786</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.86813986408378</v>
+        <v>-4.856867391337054</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.138233962572097</v>
       </c>
       <c r="E40" t="n">
-        <v>-26.63723549113538</v>
+        <v>-26.49828688107614</v>
       </c>
       <c r="F40" t="n">
-        <v>7.589893274172027</v>
+        <v>7.450015110611027</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.970207457037876</v>
+        <v>-4.940409375770107</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.970264619268471</v>
       </c>
       <c r="E41" t="n">
-        <v>-26.37023106698122</v>
+        <v>-26.21600373950569</v>
       </c>
       <c r="F41" t="n">
-        <v>7.689290037346412</v>
+        <v>7.55373233372318</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.340575612127465</v>
+        <v>-5.312754468588797</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.839190870215931</v>
       </c>
       <c r="E42" t="n">
-        <v>-25.64741811939237</v>
+        <v>-25.49921325122403</v>
       </c>
       <c r="F42" t="n">
-        <v>7.658758787119507</v>
+        <v>7.524196098512246</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.420176813405159</v>
+        <v>-5.391295193336312</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.74094290539704</v>
       </c>
       <c r="E43" t="n">
-        <v>-25.15046048812613</v>
+        <v>-25.0056465263938</v>
       </c>
       <c r="F43" t="n">
-        <v>7.603980592029725</v>
+        <v>7.474576270742104</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.447657557069943</v>
+        <v>-5.418802121606778</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.671545211759539</v>
       </c>
       <c r="E44" t="n">
-        <v>-24.86423656340031</v>
+        <v>-24.71808718677812</v>
       </c>
       <c r="F44" t="n">
-        <v>7.807199316738997</v>
+        <v>7.672715181948787</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.486227481241667</v>
+        <v>-5.460370183129259</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.61755145507023</v>
       </c>
       <c r="E45" t="n">
-        <v>-24.32307931774041</v>
+        <v>-24.17600038761646</v>
       </c>
       <c r="F45" t="n">
-        <v>7.738071957734683</v>
+        <v>7.601178839221595</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.541018768634291</v>
+        <v>-5.517714469576019</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.580669113656506</v>
       </c>
       <c r="E46" t="n">
-        <v>-23.95373236227247</v>
+        <v>-23.79921700413442</v>
       </c>
       <c r="F46" t="n">
-        <v>7.628489382949436</v>
+        <v>7.494816970935413</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.429694917571094</v>
+        <v>-5.415947999587281</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.550258909146929</v>
       </c>
       <c r="E47" t="n">
-        <v>-23.48192504476519</v>
+        <v>-23.32799884025502</v>
       </c>
       <c r="F47" t="n">
-        <v>7.811860176550652</v>
+        <v>7.676904718858139</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.570136050154289</v>
+        <v>-5.551610441633247</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-3.525859027818118</v>
       </c>
       <c r="E48" t="n">
-        <v>-22.72356649496105</v>
+        <v>-22.58326937770912</v>
       </c>
       <c r="F48" t="n">
-        <v>7.834064722170218</v>
+        <v>7.69413418939785</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.832479614496797</v>
+        <v>-5.808821823261797</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-3.508161227190658</v>
       </c>
       <c r="E49" t="n">
-        <v>-22.43185689534455</v>
+        <v>-22.2844637499524</v>
       </c>
       <c r="F49" t="n">
-        <v>7.892613500478418</v>
+        <v>7.753389952059503</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.660996631875869</v>
+        <v>-5.646621283355653</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-3.49429324669893</v>
       </c>
       <c r="E50" t="n">
-        <v>-21.96349285348465</v>
+        <v>-21.80489269685997</v>
       </c>
       <c r="F50" t="n">
-        <v>7.817149466898709</v>
+        <v>7.676171549899003</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.705746122988888</v>
+        <v>-5.698506079517414</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-3.496803810749962</v>
       </c>
       <c r="E51" t="n">
-        <v>-21.39311358788201</v>
+        <v>-21.249595764131</v>
       </c>
       <c r="F51" t="n">
-        <v>7.881380304640217</v>
+        <v>7.748257769345546</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.819400403957912</v>
+        <v>-5.815381066985502</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.517244180957585</v>
       </c>
       <c r="E52" t="n">
-        <v>-21.05682469708943</v>
+        <v>-20.908213967533</v>
       </c>
       <c r="F52" t="n">
-        <v>7.604897053228646</v>
+        <v>7.479368053582176</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.946618310670964</v>
+        <v>-5.945819680197619</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.56916283768842</v>
       </c>
       <c r="E53" t="n">
-        <v>-20.32763579801665</v>
+        <v>-20.17789913041583</v>
       </c>
       <c r="F53" t="n">
-        <v>7.786277816797918</v>
+        <v>7.648232575634759</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.985044219511431</v>
+        <v>-5.987754326199668</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-3.661974205108875</v>
       </c>
       <c r="E54" t="n">
-        <v>-19.39111719114231</v>
+        <v>-19.26313993086443</v>
       </c>
       <c r="F54" t="n">
-        <v>7.698088064856051</v>
+        <v>7.567872020792245</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.011543040463084</v>
+        <v>-6.016884700022509</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-3.800078625942891</v>
       </c>
       <c r="E55" t="n">
-        <v>-19.00205322759473</v>
+        <v>-18.87373556744297</v>
       </c>
       <c r="F55" t="n">
-        <v>7.655721372860226</v>
+        <v>7.52414372930088</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.467652686863136</v>
+        <v>-6.462127735063929</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.997643251736129</v>
       </c>
       <c r="E56" t="n">
-        <v>-18.87905104239671</v>
+        <v>-18.75381007341277</v>
       </c>
       <c r="F56" t="n">
-        <v>7.388428918043547</v>
+        <v>7.259364996629811</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.344244640277027</v>
+        <v>-6.346902377753898</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-4.249240337160519</v>
       </c>
       <c r="E57" t="n">
-        <v>-18.58656899691255</v>
+        <v>-18.45479496881058</v>
       </c>
       <c r="F57" t="n">
-        <v>7.396650884228151</v>
+        <v>7.269995946537293</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.242923308584909</v>
+        <v>-6.255766857672642</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.560511655144452</v>
       </c>
       <c r="E58" t="n">
-        <v>-17.97826132997744</v>
+        <v>-17.86530094105903</v>
       </c>
       <c r="F58" t="n">
-        <v>7.133940735406076</v>
+        <v>7.016005271407807</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.42937079335393</v>
+        <v>-6.441494265785368</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.923969835846678</v>
       </c>
       <c r="E59" t="n">
-        <v>-17.47753311549278</v>
+        <v>-17.36294928102199</v>
       </c>
       <c r="F59" t="n">
-        <v>7.21702448923967</v>
+        <v>7.087017922021329</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.541571828707522</v>
+        <v>-6.551351778930291</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.324884061200247</v>
       </c>
       <c r="E60" t="n">
-        <v>-17.19962280307146</v>
+        <v>-17.09189933528974</v>
       </c>
       <c r="F60" t="n">
-        <v>7.352844038919735</v>
+        <v>7.230404822743913</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.915108321084809</v>
+        <v>-6.9168626896656</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.754176714315999</v>
       </c>
       <c r="E61" t="n">
-        <v>-16.84289682754295</v>
+        <v>-16.73940217357911</v>
       </c>
       <c r="F61" t="n">
-        <v>7.131269905626364</v>
+        <v>7.011658626864354</v>
       </c>
       <c r="G61" t="n">
-        <v>-6.703287953408522</v>
+        <v>-6.710266150823163</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.184152892616011</v>
       </c>
       <c r="E62" t="n">
-        <v>-16.43482284026919</v>
+        <v>-16.33498093879819</v>
       </c>
       <c r="F62" t="n">
-        <v>7.130667659695644</v>
+        <v>7.011868103709822</v>
       </c>
       <c r="G62" t="n">
-        <v>-6.685927559840394</v>
+        <v>-6.6984176167514</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.606997091632138</v>
       </c>
       <c r="E63" t="n">
-        <v>-15.91991566180695</v>
+        <v>-15.82106877535192</v>
       </c>
       <c r="F63" t="n">
-        <v>7.028102559233562</v>
+        <v>6.913204509494574</v>
       </c>
       <c r="G63" t="n">
-        <v>-6.694450648990357</v>
+        <v>-6.709480612652658</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.006048791871622</v>
       </c>
       <c r="E64" t="n">
-        <v>-15.7112767237212</v>
+        <v>-15.62032449587973</v>
       </c>
       <c r="F64" t="n">
-        <v>6.83360330821688</v>
+        <v>6.725460886744222</v>
       </c>
       <c r="G64" t="n">
-        <v>-6.440381420043821</v>
+        <v>-6.464981857083425</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.369147761165966</v>
       </c>
       <c r="E65" t="n">
-        <v>-15.46904293654359</v>
+        <v>-15.37675529381226</v>
       </c>
       <c r="F65" t="n">
-        <v>6.796604460386162</v>
+        <v>6.68243957960631</v>
       </c>
       <c r="G65" t="n">
-        <v>-6.532878539620616</v>
+        <v>-6.548785687573313</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.694236162383514</v>
       </c>
       <c r="E66" t="n">
-        <v>-15.06972769987094</v>
+        <v>-14.98579294635264</v>
       </c>
       <c r="F66" t="n">
-        <v>6.807025933448176</v>
+        <v>6.689980746043145</v>
       </c>
       <c r="G66" t="n">
-        <v>-6.614351940204677</v>
+        <v>-6.633597625382015</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.964240863711286</v>
       </c>
       <c r="E67" t="n">
-        <v>-14.9483489602253</v>
+        <v>-14.87233504992624</v>
       </c>
       <c r="F67" t="n">
-        <v>6.759684166372494</v>
+        <v>6.6433721479266</v>
       </c>
       <c r="G67" t="n">
-        <v>-6.582851859567485</v>
+        <v>-6.592448517550469</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.177641968301568</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.56859362399819</v>
+        <v>-14.49810466549834</v>
       </c>
       <c r="F68" t="n">
-        <v>6.46793528984747</v>
+        <v>6.356153208184813</v>
       </c>
       <c r="G68" t="n">
-        <v>-6.431491746414289</v>
+        <v>-6.445317218215152</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.322109649349725</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.73182845582883</v>
+        <v>-14.66203338937959</v>
       </c>
       <c r="F69" t="n">
-        <v>6.453350464481788</v>
+        <v>6.339578352787188</v>
       </c>
       <c r="G69" t="n">
-        <v>-6.338444750118142</v>
+        <v>-6.348735300151739</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.391994162641559</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.60318348810603</v>
+        <v>-14.52646259345352</v>
       </c>
       <c r="F70" t="n">
-        <v>6.400640853240999</v>
+        <v>6.288099418013521</v>
       </c>
       <c r="G70" t="n">
-        <v>-6.433049730452455</v>
+        <v>-6.442319080864396</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.388734182953103</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.58972460078474</v>
+        <v>-14.50582912417496</v>
       </c>
       <c r="F71" t="n">
-        <v>6.510563827900131</v>
+        <v>6.388805411472078</v>
       </c>
       <c r="G71" t="n">
-        <v>-6.283561816605626</v>
+        <v>-6.28776444581782</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.303774716311466</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.53962035780945</v>
+        <v>-14.46584523129633</v>
       </c>
       <c r="F72" t="n">
-        <v>6.117925665676766</v>
+        <v>6.00417973858785</v>
       </c>
       <c r="G72" t="n">
-        <v>-6.376189859210839</v>
+        <v>-6.390591392336737</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.147006744563503</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.78641026637599</v>
+        <v>-14.69374294686225</v>
       </c>
       <c r="F73" t="n">
-        <v>6.073307097592163</v>
+        <v>5.962729507790945</v>
       </c>
       <c r="G73" t="n">
-        <v>-6.103830683194411</v>
+        <v>-6.103136791143799</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.917938242603913</v>
       </c>
       <c r="E74" t="n">
-        <v>-14.93151225877084</v>
+        <v>-14.84177761509365</v>
       </c>
       <c r="F74" t="n">
-        <v>6.003629861868498</v>
+        <v>5.888155750804473</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.863861864408414</v>
+        <v>-5.875095060246615</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.62499866458654</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.20245746608036</v>
+        <v>-15.10575771729137</v>
       </c>
       <c r="F75" t="n">
-        <v>5.714839845785703</v>
+        <v>5.611620130181535</v>
       </c>
       <c r="G75" t="n">
-        <v>-5.667084552697271</v>
+        <v>-5.679247302037234</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.280737920895844</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.31503817821636</v>
+        <v>-15.21192320103493</v>
       </c>
       <c r="F76" t="n">
-        <v>5.739165344465631</v>
+        <v>5.631703722740743</v>
       </c>
       <c r="G76" t="n">
-        <v>-5.396623760592894</v>
+        <v>-5.415882538073073</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.888181840424759</v>
       </c>
       <c r="E77" t="n">
-        <v>-15.50758667610963</v>
+        <v>-15.41717123268467</v>
       </c>
       <c r="F77" t="n">
-        <v>5.67810284401182</v>
+        <v>5.570300822413047</v>
       </c>
       <c r="G77" t="n">
-        <v>-5.383269611694334</v>
+        <v>-5.399412421098182</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.467171513125845</v>
       </c>
       <c r="E78" t="n">
-        <v>-15.92571555196583</v>
+        <v>-15.82630569648861</v>
       </c>
       <c r="F78" t="n">
-        <v>5.475512549838951</v>
+        <v>5.368443697199315</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.895974099925289</v>
+        <v>-4.924096366429317</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.022751755166134</v>
       </c>
       <c r="E79" t="n">
-        <v>-16.16931093863899</v>
+        <v>-16.06970469861914</v>
       </c>
       <c r="F79" t="n">
-        <v>5.057658612342422</v>
+        <v>4.961089786581851</v>
       </c>
       <c r="G79" t="n">
-        <v>-5.002951306445032</v>
+        <v>-5.025470067332802</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.568456266227442</v>
       </c>
       <c r="E80" t="n">
-        <v>-16.78755566343098</v>
+        <v>-16.68366824038188</v>
       </c>
       <c r="F80" t="n">
-        <v>5.259646660584572</v>
+        <v>5.150037901193641</v>
       </c>
       <c r="G80" t="n">
-        <v>-4.897374976329353</v>
+        <v>-4.91904273753241</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.116553009681534</v>
       </c>
       <c r="E81" t="n">
-        <v>-17.38456467301368</v>
+        <v>-17.27629132851261</v>
       </c>
       <c r="F81" t="n">
-        <v>4.917806633387104</v>
+        <v>4.814665471599986</v>
       </c>
       <c r="G81" t="n">
-        <v>-4.847676594742162</v>
+        <v>-4.875314446041045</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.669626283122483</v>
       </c>
       <c r="E82" t="n">
-        <v>-18.07951720015535</v>
+        <v>-17.95634481502039</v>
       </c>
       <c r="F82" t="n">
-        <v>5.098035274306305</v>
+        <v>5.004111093719763</v>
       </c>
       <c r="G82" t="n">
-        <v>-4.749536692640583</v>
+        <v>-4.765339102170547</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.243996128828963</v>
       </c>
       <c r="E83" t="n">
-        <v>-18.87012209185866</v>
+        <v>-18.75257939694564</v>
       </c>
       <c r="F83" t="n">
-        <v>4.920163247898615</v>
+        <v>4.826893682454158</v>
       </c>
       <c r="G83" t="n">
-        <v>-4.668351322719039</v>
+        <v>-4.681338887138032</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.839299030632087</v>
       </c>
       <c r="E84" t="n">
-        <v>-19.76272911500186</v>
+        <v>-19.64345823611373</v>
       </c>
       <c r="F84" t="n">
-        <v>4.991856698259907</v>
+        <v>4.887118275526098</v>
       </c>
       <c r="G84" t="n">
-        <v>-4.541185785217355</v>
+        <v>-4.546710737016562</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.463735071273288</v>
       </c>
       <c r="E85" t="n">
-        <v>-20.82852112013541</v>
+        <v>-20.7021018438957</v>
       </c>
       <c r="F85" t="n">
-        <v>4.721029321675961</v>
+        <v>4.611080162411145</v>
       </c>
       <c r="G85" t="n">
-        <v>-4.273199438350064</v>
+        <v>-4.282743727121682</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.12077804756382</v>
       </c>
       <c r="E86" t="n">
-        <v>-21.98123292383518</v>
+        <v>-21.8448111282244</v>
       </c>
       <c r="F86" t="n">
-        <v>4.639438090366324</v>
+        <v>4.540853049968127</v>
       </c>
       <c r="G86" t="n">
-        <v>-4.049674551933275</v>
+        <v>-4.054453242470505</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-2.807995742794609</v>
       </c>
       <c r="E87" t="n">
-        <v>-23.13962678696826</v>
+        <v>-23.01121748069662</v>
       </c>
       <c r="F87" t="n">
-        <v>4.534961513689351</v>
+        <v>4.441194440736909</v>
       </c>
       <c r="G87" t="n">
-        <v>-3.966276582831479</v>
+        <v>-3.977483594063997</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-2.533525742177613</v>
       </c>
       <c r="E88" t="n">
-        <v>-24.42407334186148</v>
+        <v>-24.29428934379145</v>
       </c>
       <c r="F88" t="n">
-        <v>4.352926134977992</v>
+        <v>4.250491957544327</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.124916016364674</v>
+        <v>-4.120084956616077</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-2.292339440183921</v>
       </c>
       <c r="E89" t="n">
-        <v>-26.16078040611929</v>
+        <v>-26.03131062331746</v>
       </c>
       <c r="F89" t="n">
-        <v>4.3806032631854</v>
+        <v>4.276493270987994</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.153156113594277</v>
+        <v>-4.155355620471687</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.08970354121179</v>
       </c>
       <c r="E90" t="n">
-        <v>-27.77891048353958</v>
+        <v>-27.64584031745628</v>
       </c>
       <c r="F90" t="n">
-        <v>4.079506482431384</v>
+        <v>3.984063594715201</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.235729267617043</v>
+        <v>-4.228751070202404</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-1.926524216333302</v>
       </c>
       <c r="E91" t="n">
-        <v>-29.35015702448365</v>
+        <v>-29.21610493568722</v>
       </c>
       <c r="F91" t="n">
-        <v>3.723395845136435</v>
+        <v>3.631749725244352</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.198167450764132</v>
+        <v>-4.187340116314024</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-1.803051390810142</v>
       </c>
       <c r="E92" t="n">
-        <v>-30.99566310714599</v>
+        <v>-30.85986974207161</v>
       </c>
       <c r="F92" t="n">
-        <v>3.375192958757888</v>
+        <v>3.295251357606309</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.399579437681245</v>
+        <v>-4.385793242788908</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-1.727787138348674</v>
       </c>
       <c r="E93" t="n">
-        <v>-33.10110178863817</v>
+        <v>-32.97157963662497</v>
       </c>
       <c r="F93" t="n">
-        <v>3.187527889824587</v>
+        <v>3.119290807413511</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.78887906267997</v>
+        <v>-4.769109685388964</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-1.698398250802356</v>
       </c>
       <c r="E94" t="n">
-        <v>-35.17587829687502</v>
+        <v>-35.0285898899056</v>
       </c>
       <c r="F94" t="n">
-        <v>3.058385414593801</v>
+        <v>2.995306699502365</v>
       </c>
       <c r="G94" t="n">
-        <v>-5.021712576417226</v>
+        <v>-4.992516741080177</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-1.719472350431148</v>
       </c>
       <c r="E95" t="n">
-        <v>-37.20413785311523</v>
+        <v>-37.06274098242459</v>
       </c>
       <c r="F95" t="n">
-        <v>2.682374476979428</v>
+        <v>2.625344405800869</v>
       </c>
       <c r="G95" t="n">
-        <v>-5.322351126571782</v>
+        <v>-5.283231325680704</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-1.790433676474486</v>
       </c>
       <c r="E96" t="n">
-        <v>-39.71106509355177</v>
+        <v>-39.56271621005218</v>
       </c>
       <c r="F96" t="n">
-        <v>2.350144200067787</v>
+        <v>2.301624125736351</v>
       </c>
       <c r="G96" t="n">
-        <v>-5.690310297938493</v>
+        <v>-5.634497810924215</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-1.902502171905714</v>
       </c>
       <c r="E97" t="n">
-        <v>-41.85822894420053</v>
+        <v>-41.7332760058791</v>
       </c>
       <c r="F97" t="n">
-        <v>2.085051252128518</v>
+        <v>2.052765633320822</v>
       </c>
       <c r="G97" t="n">
-        <v>-6.224607176909334</v>
+        <v>-6.159931200871207</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-2.059329796811114</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.23141831110885</v>
+        <v>-44.08745534906123</v>
       </c>
       <c r="F98" t="n">
-        <v>1.488618303870845</v>
+        <v>1.460050899070199</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.46578048755677</v>
+        <v>-6.405320233033679</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-2.238212883548463</v>
       </c>
       <c r="E99" t="n">
-        <v>-46.42420883716103</v>
+        <v>-46.28880824117189</v>
       </c>
       <c r="F99" t="n">
-        <v>1.233357675365712</v>
+        <v>1.211022206717727</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.609874372632807</v>
+        <v>-6.554349916281047</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-2.448639780018706</v>
       </c>
       <c r="E100" t="n">
-        <v>-48.76465435466218</v>
+        <v>-48.62871697425654</v>
       </c>
       <c r="F100" t="n">
-        <v>1.037444455642123</v>
+        <v>1.010814711662053</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.862595094386645</v>
+        <v>-6.810487729076575</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-2.650546600346797</v>
       </c>
       <c r="E101" t="n">
-        <v>-50.88946964436012</v>
+        <v>-50.76089013815152</v>
       </c>
       <c r="F101" t="n">
-        <v>0.8236864271452617</v>
+        <v>0.8052000955327445</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.041671612655774</v>
+        <v>-6.989263124380345</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-2.87539988003788</v>
       </c>
       <c r="E102" t="n">
-        <v>-53.47544820935501</v>
+        <v>-53.33392041563595</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3439451741158935</v>
+        <v>0.3280903953745632</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.389429360737703</v>
+        <v>-7.328877460094719</v>
       </c>
     </row>
   </sheetData>
